--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/9_Ardahan_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/9_Ardahan_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE05BD50-2E81-4504-ADBC-663F38D6E108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5A9E3B5-7796-4AED-BE6F-CC7A6D1B4B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{1DA9D15C-10E3-4E20-B030-10941E8ED14D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{8EEE32EC-2571-48DD-B785-F7F2D537A3C0}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="146" r:id="rId1"/>
@@ -900,15 +900,15 @@
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{55C3C29E-0DD1-4EB7-A9C5-7CF75FFD3EF2}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{EBEBE3A9-6EAB-4E4B-8D93-65EFA58389C5}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{D5DC81C8-8ECB-4FE1-AEEE-97A9CA5940B4}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{99303AEE-3030-4AC5-A176-E906500B4089}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{FD2F8D0A-88AF-4ED1-BFF7-65F00EDBC84A}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{FF3598C8-F27E-431B-A430-10032D0E7CC4}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{52F91AA0-A526-4378-8FF2-6FA305710502}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{9DBAC622-7F10-4888-8D07-98C18C0E7FE7}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{A40CC0FA-AD13-49FD-A56E-0A50D0D1D451}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{1DD5AF17-F759-440D-A90C-E346FC6A8292}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{D156277D-381A-4A29-9CAF-28A5C00892F8}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{06FCA331-19CD-44E0-AB65-359B67BED06C}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{994C7684-5F76-4640-9701-7B29203DAB35}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{E1AE9008-1481-45C2-B122-D43CB091AEF0}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{CCFBF9F7-085B-42AA-81D9-F6D1AC17D21F}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{F3A76B84-CEE3-4880-B7DB-1A4FDAE7561B}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{6851D636-4188-4160-BC7F-9498564E732E}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{CD8C6F6B-670D-4C91-9C30-DB8827EE7343}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973D05CF-FC4F-40DE-9515-7FBCCAB04E81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E558D686-C11B-4EC8-9CCF-97CF421604A5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2537,7 +2537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD7F870-CC40-4AC8-A8D4-289A7B4DD159}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE9DA61-2F07-4745-B6E8-E769F5D47A39}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3788,7 +3788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31B024D-55C6-448B-8DC0-78BC2EAC1FF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDA7E77-9D6B-4893-9FD0-11551DF636BE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5039,7 +5039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BD55F4-ABC4-4AB7-B8AD-06F5B4467D2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A253A58-C2BD-4294-B734-3A94A4CE2566}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6286,7 +6286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCFEFE2-5A15-4459-863D-9C858852FFF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36A0D3E-A8CC-416E-92F7-8EDDF1A09C70}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7545,7 +7545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732B9CF5-0469-4A27-BD08-3480EF760BCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1336741E-FA19-4695-B0EA-865B65C743F8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8804,7 +8804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80304EB7-2F17-4C83-BA77-CCF66CF5A685}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4393F0D-2B10-498E-9360-BE6EFCBBD12F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10063,7 +10063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1D2FEE-F365-4B03-B0E1-3A193BC199D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26EA55C-AD32-4F7E-9DCA-D80ECE554D0B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11320,7 +11320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91164E28-7196-4C2D-AE94-0D124629F629}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD20D77A-D500-4713-8AB9-CBA62738AEBD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12577,7 +12577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EEDB6B-6246-4943-900F-F81DAC067737}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9298730-97EC-413D-B972-D1E25C163526}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13834,7 +13834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A1DC99-13C6-4045-AACB-B0E6AE2ED822}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E8F6B1-6760-4988-AB4F-5EE48734E619}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15091,7 +15091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503225C5-D423-4C3F-9DE1-949F7877086B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070C9122-83EB-4314-A9C1-C09161EF34F8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
